--- a/src/main/resources/my_test_excel.xlsx
+++ b/src/main/resources/my_test_excel.xlsx
@@ -27,12 +27,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>日期</t>
   </si>
   <si>
     <t>用户</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+  </si>
+  <si>
+    <t>3号</t>
+  </si>
+  <si>
+    <t>4号</t>
+  </si>
+  <si>
+    <t>5号</t>
+  </si>
+  <si>
+    <t>6号</t>
+  </si>
+  <si>
+    <t>7号</t>
+  </si>
+  <si>
+    <t>8号</t>
   </si>
 </sst>
 </file>
@@ -1007,13 +1051,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="23.25" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="23.25" outlineLevelCol="3"/>
   <cols>
     <col min="4" max="4" width="10.7794871794872" style="1"/>
   </cols>
@@ -1029,8 +1073,8 @@
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4">
-        <v>1</v>
+      <c r="A2" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="4">
         <v>10</v>
@@ -1039,19 +1083,59 @@
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
         <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
